--- a/Lists.xlsx
+++ b/Lists.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Cities-Entities" sheetId="1" r:id="rId1"/>
     <sheet name="Other-Lists" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -6001,12 +6001,12 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="3"/>
   </cols>

--- a/Lists.xlsx
+++ b/Lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cities-Entities" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="570">
   <si>
     <t>Ciudad</t>
   </si>
@@ -1712,6 +1712,24 @@
   </si>
   <si>
     <t>Divorcio, separación de cuerpos y de bienes por mutuo acuerdo</t>
+  </si>
+  <si>
+    <t>Tipo de Proceso General</t>
+  </si>
+  <si>
+    <t>Declarativo</t>
+  </si>
+  <si>
+    <t>Declarativo Especial</t>
+  </si>
+  <si>
+    <t>Liquidatorios</t>
+  </si>
+  <si>
+    <t>De Jurisdicción Voluntaria</t>
+  </si>
+  <si>
+    <t>SMMLV</t>
   </si>
 </sst>
 </file>
@@ -5998,20 +6016,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="3"/>
+    <col min="3" max="3" width="58.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>536</v>
       </c>
@@ -6021,8 +6040,14 @@
       <c r="C1" s="2" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>538</v>
       </c>
@@ -6032,8 +6057,14 @@
       <c r="C2" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F2" s="3">
+        <v>877803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>539</v>
       </c>
@@ -6043,103 +6074,163 @@
       <c r="C3" s="3" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>540</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>563</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/Lists.xlsx
+++ b/Lists.xlsx
@@ -6019,7 +6019,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lists.xlsx
+++ b/Lists.xlsx
@@ -1648,9 +1648,6 @@
     <t>Natural</t>
   </si>
   <si>
-    <t>Jurídica</t>
-  </si>
-  <si>
     <t>Tipo de Proceso</t>
   </si>
   <si>
@@ -1730,6 +1727,9 @@
   </si>
   <si>
     <t>SMMLV</t>
+  </si>
+  <si>
+    <t>Juridica</t>
   </si>
 </sst>
 </file>
@@ -6019,7 +6019,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6038,13 +6038,13 @@
         <v>537</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6055,10 +6055,10 @@
         <v>541</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F2" s="3">
         <v>877803</v>
@@ -6069,13 +6069,13 @@
         <v>539</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6083,154 +6083,154 @@
         <v>540</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/Lists.xlsx
+++ b/Lists.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="573">
   <si>
     <t>Ciudad</t>
   </si>
@@ -1730,6 +1730,15 @@
   </si>
   <si>
     <t>Juridica</t>
+  </si>
+  <si>
+    <t>Estados</t>
+  </si>
+  <si>
+    <t>Abierto</t>
+  </si>
+  <si>
+    <t>Cerrado</t>
   </si>
 </sst>
 </file>
@@ -6018,9 +6027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6043,6 +6050,9 @@
       <c r="D1" s="2" t="s">
         <v>563</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>570</v>
+      </c>
       <c r="F1" s="2" t="s">
         <v>568</v>
       </c>
@@ -6060,6 +6070,9 @@
       <c r="D2" s="3" t="s">
         <v>564</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>571</v>
+      </c>
       <c r="F2" s="3">
         <v>877803</v>
       </c>
@@ -6076,6 +6089,9 @@
       </c>
       <c r="D3" s="3" t="s">
         <v>564</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
